--- a/03-BOM/EGR304-DistanceSensingSubsystemBOM.xlsx
+++ b/03-BOM/EGR304-DistanceSensingSubsystemBOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9eee4bdecec0601/Documents/KiCad/EGR304-IndividualSubystemDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{8F12B5F6-1A22-47C1-8F45-69FEAD3AE414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B26C24EF-5953-4A78-A089-13167EC6EEC2}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{8F12B5F6-1A22-47C1-8F45-69FEAD3AE414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2653CA-6D78-45FE-BBE7-CC3B42463B83}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{CE5DBA1D-F550-44AF-BD5E-7DF98293FDBD}"/>
+    <workbookView xWindow="1950" yWindow="2550" windowWidth="28800" windowHeight="15435" xr2:uid="{CE5DBA1D-F550-44AF-BD5E-7DF98293FDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="EGR304-IndividualSubystemDesign" sheetId="1" r:id="rId1"/>
@@ -319,9 +319,6 @@
     <t>J4, J6, J7, J8, J9,J10,J11</t>
   </si>
   <si>
-    <t>R2,R16,R17</t>
-  </si>
-  <si>
     <t>100Ω Resistor</t>
   </si>
   <si>
@@ -383,6 +380,9 @@
   </si>
   <si>
     <t>2x4 Pin Header (8-pin Connecter)</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1707,7 +1707,7 @@
         <v>51</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>51</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
@@ -2331,22 +2331,22 @@
         <v>3.06</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="2">
         <v>4</v>
@@ -2355,7 +2355,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2457,22 +2457,22 @@
         <v>1.7149999999999999</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="5">
         <v>5010</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" s="2">
         <v>10</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2">
         <v>5</v>
@@ -2499,22 +2499,22 @@
         <v>4.0500000000000007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="5">
         <v>901471102</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K26" s="2">
         <v>5</v>
